--- a/MISTDO.Web/wwwroot/templates/training.xlsx
+++ b/MISTDO.Web/wwwroot/templates/training.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87BA2C5A-6C08-46A1-B74D-DE294CF70D03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Desktop\MISTDO.Web\MISTDO.Web\wwwroot\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -22,23 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>TraininName</t>
   </si>
   <si>
-    <t>TrainingCost</t>
-  </si>
-  <si>
     <t>TrainingStartDate</t>
   </si>
   <si>
     <t>TrainingEndDate</t>
   </si>
   <si>
-    <t>CentreId</t>
-  </si>
-  <si>
     <t>Graphics design</t>
   </si>
   <si>
@@ -46,13 +44,73 @@
   </si>
   <si>
     <t>dell inspire</t>
+  </si>
+  <si>
+    <t>TrainingCentreId</t>
+  </si>
+  <si>
+    <t>3f0fe022-dc49-46b9-a907-fb76e8005b60</t>
+  </si>
+  <si>
+    <t>TraineeId</t>
+  </si>
+  <si>
+    <t>98a9e15b-0436-43fe-8f4b-0b572446795d</t>
+  </si>
+  <si>
+    <t>ModuleId</t>
+  </si>
+  <si>
+    <t>Yiba Training</t>
+  </si>
+  <si>
+    <t>Hive insight</t>
+  </si>
+  <si>
+    <t>Dynamics design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UX training </t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Venue</t>
+  </si>
+  <si>
+    <t>Lekki</t>
+  </si>
+  <si>
+    <t>Abuja</t>
+  </si>
+  <si>
+    <t>Ikeja</t>
+  </si>
+  <si>
+    <t>Ikoyi</t>
+  </si>
+  <si>
+    <t>Maitama</t>
+  </si>
+  <si>
+    <t>Asokoro</t>
+  </si>
+  <si>
+    <t>Kubwa</t>
+  </si>
+  <si>
+    <t>TrainingStartTime</t>
+  </si>
+  <si>
+    <t>TrainingEndTime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,152 +456,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.36328125" customWidth="1"/>
+    <col min="3" max="3" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="8" width="15.08984375" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>25800</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43649</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43560</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43713</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>35000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43425</v>
+      </c>
+      <c r="J4" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>804763</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I5" s="1">
+        <v>43442</v>
+      </c>
+      <c r="J5" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>43300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43442</v>
+      </c>
+      <c r="J6" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>23000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43442</v>
+      </c>
+      <c r="J7" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>3000</v>
       </c>
-      <c r="C2" s="1">
-        <v>42554</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42771</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>4000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42099</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42618</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>78</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42495</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42924</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42495</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42924</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42495</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42924</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42554</v>
-      </c>
-      <c r="D7" s="1">
-        <v>42771</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>3000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42554</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42771</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43442</v>
+      </c>
+      <c r="J8" s="1">
+        <v>43442</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MISTDO.Web/wwwroot/templates/training.xlsx
+++ b/MISTDO.Web/wwwroot/templates/training.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Desktop\MISTDO.Web\MISTDO.Web\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Femi Ogunyomi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>TraininName</t>
   </si>
@@ -43,30 +43,15 @@
     <t>laracast dev</t>
   </si>
   <si>
-    <t>dell inspire</t>
-  </si>
-  <si>
     <t>TrainingCentreId</t>
   </si>
   <si>
     <t>3f0fe022-dc49-46b9-a907-fb76e8005b60</t>
   </si>
   <si>
-    <t>TraineeId</t>
-  </si>
-  <si>
-    <t>98a9e15b-0436-43fe-8f4b-0b572446795d</t>
-  </si>
-  <si>
     <t>ModuleId</t>
   </si>
   <si>
-    <t>Yiba Training</t>
-  </si>
-  <si>
-    <t>Hive insight</t>
-  </si>
-  <si>
     <t>Dynamics design</t>
   </si>
   <si>
@@ -83,15 +68,6 @@
   </si>
   <si>
     <t>Abuja</t>
-  </si>
-  <si>
-    <t>Ikeja</t>
-  </si>
-  <si>
-    <t>Ikoyi</t>
-  </si>
-  <si>
-    <t>Maitama</t>
   </si>
   <si>
     <t>Asokoro</t>
@@ -457,278 +433,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
     <col min="2" max="2" width="34.36328125" customWidth="1"/>
-    <col min="3" max="3" width="34.90625" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="8" width="15.08984375" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="8.6328125" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="7" width="15.08984375" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
         <v>25800</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.4375</v>
       </c>
       <c r="G2" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H2" s="2">
         <v>0.72916666666666663</v>
       </c>
+      <c r="H2" s="1">
+        <v>43649</v>
+      </c>
       <c r="I2" s="1">
-        <v>43649</v>
-      </c>
-      <c r="J2" s="1">
         <v>43501</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43560</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>23000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43442</v>
+      </c>
+      <c r="I4" s="1">
+        <v>43442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>4000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.4375</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G5" s="2">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I3" s="1">
-        <v>43560</v>
-      </c>
-      <c r="J3" s="1">
-        <v>43713</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>35000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I4" s="1">
-        <v>43425</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H5" s="1">
         <v>43442</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>804763</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.72916666666666663</v>
-      </c>
       <c r="I5" s="1">
-        <v>43442</v>
-      </c>
-      <c r="J5" s="1">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>43300</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I6" s="1">
-        <v>43442</v>
-      </c>
-      <c r="J6" s="1">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>23000</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I7" s="1">
-        <v>43442</v>
-      </c>
-      <c r="J7" s="1">
-        <v>43442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>3000</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="I8" s="1">
-        <v>43442</v>
-      </c>
-      <c r="J8" s="1">
         <v>43442</v>
       </c>
     </row>
